--- a/database/industries/kaghaz/chekapa/official/yearly.xlsx
+++ b/database/industries/kaghaz/chekapa/official/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\official\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\official\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E39002-7D84-48DD-8564-256953502004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -33,9 +34,6 @@
     <t>هزینه های عمومی و اداری</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/08</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/08</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/08</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/08</t>
   </si>
   <si>
     <t>هزینه حمل و نقل و انتقال</t>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -257,7 +258,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -269,7 +270,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -316,6 +317,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -351,6 +369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,7 +537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -704,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>0</v>
+        <v>6534</v>
       </c>
       <c r="I13" s="11">
-        <v>6534</v>
+        <v>27267</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -739,19 +774,19 @@
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="F15" s="11">
-        <v>378</v>
+        <v>483</v>
       </c>
       <c r="G15" s="11">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="H15" s="11">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="I15" s="11">
-        <v>585</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -761,19 +796,19 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>1435</v>
+        <v>1364</v>
       </c>
       <c r="F16" s="9">
-        <v>1364</v>
+        <v>985</v>
       </c>
       <c r="G16" s="9">
-        <v>985</v>
+        <v>1915</v>
       </c>
       <c r="H16" s="9">
-        <v>1915</v>
+        <v>14923</v>
       </c>
       <c r="I16" s="9">
-        <v>0</v>
+        <v>11963</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -783,19 +818,19 @@
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>19624</v>
+        <v>29109</v>
       </c>
       <c r="F17" s="11">
-        <v>29109</v>
+        <v>47520</v>
       </c>
       <c r="G17" s="11">
-        <v>47520</v>
+        <v>75320</v>
       </c>
       <c r="H17" s="11">
-        <v>75320</v>
+        <v>99923</v>
       </c>
       <c r="I17" s="11">
-        <v>99923</v>
+        <v>140339</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -827,19 +862,19 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>2859</v>
+        <v>4711</v>
       </c>
       <c r="F19" s="11">
-        <v>4711</v>
+        <v>832</v>
       </c>
       <c r="G19" s="11">
-        <v>832</v>
+        <v>42377</v>
       </c>
       <c r="H19" s="11">
-        <v>42377</v>
+        <v>154608</v>
       </c>
       <c r="I19" s="11">
-        <v>169531</v>
+        <v>142357</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -849,19 +884,19 @@
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>24316</v>
+        <v>35562</v>
       </c>
       <c r="F20" s="13">
-        <v>35562</v>
+        <v>49820</v>
       </c>
       <c r="G20" s="13">
-        <v>49820</v>
+        <v>120107</v>
       </c>
       <c r="H20" s="13">
-        <v>120107</v>
+        <v>276573</v>
       </c>
       <c r="I20" s="13">
-        <v>276573</v>
+        <v>322707</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -933,16 +968,16 @@
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F26" s="9">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G26" s="9">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="H26" s="9">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="I26" s="9">
         <v>66</v>
@@ -955,16 +990,16 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F27" s="11">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G27" s="11">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="H27" s="11">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="I27" s="11">
         <v>596</v>
